--- a/PSS/test_output/Primer_order.xlsx
+++ b/PSS/test_output/Primer_order.xlsx
@@ -520,67 +520,67 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-1</t>
+          <t>Cgl1436_1113_CAA_del-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGC</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-2</t>
+          <t>Cgl1436_1113_CAA_del-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACCAACGCGCACGGAAATCGCGGACAGGCCTTCACGAC</t>
+          <t>ATCACCACCACTCAGACGGAGGGTCTGTTTAATGATGCAGCC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-3</t>
+          <t>Cgl1436_1113_CAA_del-3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CGATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCC</t>
+          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_GTT_del-4</t>
+          <t>Cgl1436_1113_CAA_del-4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCAGGTGCGCTATCCCAA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-1</t>
+          <t>test-Cgl1436_1113_CAA_del-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>GTTCAGCCGCAACAAGCATC</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-2</t>
+          <t>test-Cgl1436_1113_CAA_del-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,79 +592,79 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_GTT_del-3</t>
+          <t>test-Cgl1436_1113_CAA_del-3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGTTTTCTCTATTTGTCAGGCTGG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-1</t>
+          <t>Cgl2342_213_GCA_ins-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-2</t>
+          <t>Cgl2342_213_GCA_ins-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GCGCACGGAAATAACGCGCGCGGACAGGCCTTCACGAC</t>
+          <t>GGTGCCTTTTCATGCAGCAAAGAATGATCGTTGCTGGGT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-3</t>
+          <t>Cgl2342_213_GCA_ins-3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CGCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGA</t>
+          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGAC</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_CGC_ins-4</t>
+          <t>Cgl2342_213_GCA_ins-4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCCGTGCAGGTCCCTGGTTT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-1</t>
+          <t>test-Cgl2342_213_GCA_ins-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CCGCGGTAGGTGTCATAGAC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-2</t>
+          <t>test-Cgl2342_213_GCA_ins-2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,79 +676,79 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_CGC_ins-3</t>
+          <t>test-Cgl2342_213_GCA_ins-3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGTGCTGGCGTTCTCTATCA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-1</t>
+          <t>Cgl1790_1647_TCC_sub-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-2</t>
+          <t>Cgl1790_1647_TCC_sub-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AACGCGCACGGAAATGGACGCGGACAGGCCTTCACGAC</t>
+          <t>GCGCGAAGAAGAATAAAATAAGATTATGGCCGCGCTGA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-3</t>
+          <t>Cgl1790_1647_TCC_sub-3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CGTCCATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGG</t>
+          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGG</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_TCC_sub-4</t>
+          <t>Cgl1790_1647_TCC_sub-4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCACTGGTGGCGCAGAAACA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-1</t>
+          <t>test-Cgl1790_1647_TCC_sub-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGTCAGATAGTCGGCCATCA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-2</t>
+          <t>test-Cgl1790_1647_TCC_sub-2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,79 +760,79 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_TCC_sub-3</t>
+          <t>test-Cgl1790_1647_TCC_sub-3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AGCTGAGCGCGATAAAGAGA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-1</t>
+          <t>Cgl1386_327_18to15_sub-1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-2</t>
+          <t>Cgl1386_327_18to15_sub-2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CTATCCGTATGTGTCTCTCCGCGGACAGGCCTTCACGACAGTC</t>
+          <t>TTAACCGCGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-3</t>
+          <t>Cgl1386_327_18to15_sub-3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GGAGAGACACATACGGATAGGTTGGTGACCCACAGTTCG</t>
+          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACG</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_15to19_sub-4</t>
+          <t>Cgl1386_327_18to15_sub-4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCACAACAAGCTGGCGTT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-1</t>
+          <t>test-Cgl1386_327_18to15_sub-1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATGGACAGTGGTTTCGCACA</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-2</t>
+          <t>test-Cgl1386_327_18to15_sub-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,79 +844,79 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_15to19_sub-3</t>
+          <t>test-Cgl1386_327_18to15_sub-3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>AAAATGTGGGCGCGATCTTG</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-1</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins-1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCAT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-2</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins-2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CGTGCAACGGCCCCTTGCGCCAGCTTGGGGCCTGAGGCCCAAAAATACGCAGCTCCGCGGACAGGCCTTCACGACAGTC</t>
+          <t>CATTGTGTGGCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-3</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins-3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GCGCAAGGGGCCGTTGCACGTAAAAGGACGCGGTCCGAGAGACACATACGGATAGGTTATTTCCGTGCGCGTT</t>
+          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins-4</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins-4</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCACGTCCTTCCACGGCTTG</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_90_ins-1</t>
+          <t>test-Cgl0591_-1_Ppgk_promoter_ins-1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>AAGAAGGCATGATCACCGCA</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_90_ins-2</t>
+          <t>test-Cgl0591_-1_Ppgk_promoter_ins-2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,79 +928,79 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_90_ins-3</t>
+          <t>test-Cgl0591_-1_Ppgk_promoter_ins-3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>GGGACGAAAACGTCATTGGC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del-1</t>
+          <t>Cgl0141_cds_del-1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGGCAGCGAAACGTCAACG</t>
+          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del-2</t>
+          <t>Cgl0141_cds_del-2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ACGCGAGAAACGGCAAAATAGGCCCCAATTCGACGGTT</t>
+          <t>ATGTACAGGCAATTGTTTTGGCACGACTTGATGTGAGCC</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del-3</t>
+          <t>Cgl0141_cds_del-3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TATTTTGCCGTTTCTCGCGTTAGCGCCTTACTTAACCCGC</t>
+          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACA</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del-4</t>
+          <t>Cgl0141_cds_del-4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
+          <t>CAGGTCGACTCTAGAGGATCTCAAAGCGCCAGCCATCA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_cds_del-1</t>
+          <t>test-Cgl0141_cds_del-1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CCAGCTGCGGTGAATTACAA</t>
+          <t>AATTTCCTGTCCTCCGCAGC</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_cds_del-2</t>
+          <t>test-Cgl0141_cds_del-2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,103 +1012,103 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_cds_del-3</t>
+          <t>test-Cgl0141_cds_del-3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TGCTCACCTTCTTCATCACCT</t>
+          <t>ACGTGAAGAAGTGGCACAAA</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-1</t>
+          <t>153019_ecoil_ybeL_ins-1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCTTGAAGGTCTTGAGGCGGT</t>
+          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-2</t>
+          <t>153019_ecoil_ybeL_ins-2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CGCGGACAGGCCTTCACG</t>
+          <t>GAACGAGTATTTGTATTTCAATGTC</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-3</t>
+          <t>153019_ecoil_ybeL_ins-3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GTTATTTCCGTGCGCGTTG</t>
+          <t>GCTTTTAAGTTTTCTCGGTGATCC</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-4</t>
+          <t>153019_ecoil_ybeL_ins-4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCCGCACGCCTCATGGATTC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-5</t>
+          <t>153019_ecoil_ybeL_ins-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GTCGTGAAGGCCTGTCCGCGATGACAGATCCAATTGAGCAGG</t>
+          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACC</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_Cgl0005_ins-6</t>
+          <t>153019_ecoil_ybeL_ins-6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CCAACGCGCACGGAAATAACCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>CACCGAGAAAACTTAAAAGCTTACGGCTCAAACGGGCG</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-1</t>
+          <t>test-153019_ecoil_ybeL_ins-1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TTGTGCGTGGTACTACGTGG</t>
+          <t>ATCATGCGACCGCTGATCAT</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-2</t>
+          <t>test-153019_ecoil_ybeL_ins-2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,103 +1120,103 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_Cgl0005_ins-3</t>
+          <t>test-153019_ecoil_ybeL_ins-3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>ACCTGCGTCGGTTGGAAAAG</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-1</t>
+          <t>Cgl0851_ecoli_pgi_sub-1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAAGGCCTGTCGCAGTTTTC</t>
+          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCA</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-2</t>
+          <t>Cgl0851_ecoli_pgi_sub-2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AACGCGAGAAACGGCAAAAT</t>
+          <t>TCGCTTGCTTATAGGGTCAGG</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-3</t>
+          <t>Cgl0851_ecoli_pgi_sub-3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AGCGCCTTACTTAACCCGC</t>
+          <t>GAAAACTCCTTTATTGTCGT</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-4</t>
+          <t>Cgl0851_ecoli_pgi_sub-4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
+          <t>CAGGTCGACTCTAGAGGATCTAGCAACGAACTCGCCGG</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-5</t>
+          <t>Cgl0851_ecoli_pgi_sub-5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ATTTTGCCGTTTCTCGCGTTATGACAGATCCAATTGAGCAGG</t>
+          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgca</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub-6</t>
+          <t>Cgl0851_ecoli_pgi_sub-6</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GGCGGGTTAAGTAAGGCGCTCTATCCGTATGTGTCTCTCGGAC</t>
+          <t>ACGACAATAAAGGAGTTTTCttaaccgcgccacgctttat</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_Cgl0005_sub-1</t>
+          <t>test-Cgl0851_ecoli_pgi_sub-1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CTGAAGTGATGGCAGCCAGA</t>
+          <t>ATTGTTCGGAAGCTGCCTGT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_Cgl0005_sub-2</t>
+          <t>test-Cgl0851_ecoli_pgi_sub-2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_Cgl0005_sub-3</t>
+          <t>test-Cgl0851_ecoli_pgi_sub-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TGCTCACCTTCTTCATCACCT</t>
+          <t>GGTCTCCCGCATATCCATCG</t>
         </is>
       </c>
     </row>

--- a/PSS/test_output/Primer_order.xlsx
+++ b/PSS/test_output/Primer_order.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-1</t>
+          <t>CGL_RS00010-1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGGTTCAACTGGACCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCTCCGTGGAGCAGGCAAA</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-2</t>
+          <t>CGL_RS00010-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AACGCGCACGGAAATAATCGCGGACAGGCCTTCACGAC</t>
+          <t>AAGGGTGAAACTTTTGTGTGCTGTTTTAAAGCTCCTTGGGA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-3</t>
+          <t>CGL_RS00010-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGG</t>
+          <t>CACACAAAAGTTTCACCCTTTTCGCGCCTGACTTTGTACA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_G_A_sub-4</t>
+          <t>CGL_RS00010-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCAGAATTCCAGGGGCGGG</t>
+          <t>CAGGTCGACTCTAGAGGATCGCGCGAAAGACCAGGTCT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-1</t>
+          <t>test-CGL_RS00010-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGTAGCGAGGAGTGTTCGTT</t>
+          <t>CGCGATATCCTCCCAGAACC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-2</t>
+          <t>test-CGL_RS00010-2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,79 +508,79 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl0006_1176_G_A_sub-3</t>
+          <t>test-CGL_RS00010-3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CGAAAGTTCAGCTCTTGGGC</t>
+          <t>CGCTATGCCCACGAGTTTTT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del-1</t>
+          <t>CGL_RS00015-1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCCAACAGCTCCTCCTGGGC</t>
+          <t>GAGCTCGGTACCCGGGGATCAGCCCGTTGATTTCCGCA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del-2</t>
+          <t>CGL_RS00015-2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATCACCACCACTCAGACGGAGGGTCTGTTTAATGATGCAGCC</t>
+          <t>CGGGTCTGACCTCCTTTTAGTCGGTGGGAAGTGGATTGG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del-3</t>
+          <t>CGL_RS00015-3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGC</t>
+          <t>CTAAAAGGAGGTCAGACCCGCAGATCCAATTGAGCAGGCA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cgl1436_1113_CAA_del-4</t>
+          <t>CGL_RS00015-4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCGCAGGTGCGCTATCCCAA</t>
+          <t>CAGGTCGACTCTAGAGGATCACACCATGCAGACCACCG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1436_1113_CAA_del-1</t>
+          <t>test-CGL_RS00015-1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GTTCAGCCGCAACAAGCATC</t>
+          <t>TACGACGTATCCACCCGAGT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1436_1113_CAA_del-2</t>
+          <t>test-CGL_RS00015-2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,79 +592,79 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1436_1113_CAA_del-3</t>
+          <t>test-CGL_RS00015-3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GGTTTTCTCTATTTGTCAGGCTGG</t>
+          <t>TTGCCGCCTTCGATCAACTC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins-1</t>
+          <t>CGL_RS00020-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTTTTACCGGACACGCGC</t>
+          <t>GAGCTCGGTACCCGGGGATCCGGGTGTCCTCTGATGCG</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins-2</t>
+          <t>CGL_RS00020-2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GGTGCCTTTTCATGCAGCAAAGAATGATCGTTGCTGGGT</t>
+          <t>CCAAAGGTTGCACATCCAGGAGTGAAATCCGCCCGGTG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins-3</t>
+          <t>CGL_RS00020-3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TTGCTGCATGAAAAGGCACCTGAAATTTCCGTCATGCCGAC</t>
+          <t>CCTGGATGTGCAACCTTTGGTGATAAAAACCGTCGAATTGGGG</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Cgl2342_213_GCA_ins-4</t>
+          <t>CGL_RS00020-4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCCGTGCAGGTCCCTGGTTT</t>
+          <t>CAGGTCGACTCTAGAGGATCTGTTGGTCTTGCTGCGGT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl2342_213_GCA_ins-1</t>
+          <t>test-CGL_RS00020-1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CCGCGGTAGGTGTCATAGAC</t>
+          <t>TTACCGTTCCTGGCCTGAAC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl2342_213_GCA_ins-2</t>
+          <t>test-CGL_RS00020-2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,79 +676,79 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl2342_213_GCA_ins-3</t>
+          <t>test-CGL_RS00020-3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GGTGCTGGCGTTCTCTATCA</t>
+          <t>CGCGGGTGTTAATGGTGTTG</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub-1</t>
+          <t>CGL_RS00025-1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GAGCTCGGTACCCGGGGATCGTCAGCGACACGACGAGT</t>
+          <t>GAGCTCGGTACCCGGGGATCCGAGAAATCGAACGCGGC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub-2</t>
+          <t>CGL_RS00025-2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GCGCGAAGAAGAATAAAATAAGATTATGGCCGCGCTGA</t>
+          <t>GTTAAGTAAGGCGCTTTTTAACGAACACTCCTCGCTACT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub-3</t>
+          <t>CGL_RS00025-3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGG</t>
+          <t>TAAAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGG</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Cgl1790_1647_TCC_sub-4</t>
+          <t>CGL_RS00025-4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CAGGTCGACTCTAGAGGATCACTGGTGGCGCAGAAACA</t>
+          <t>CAGGTCGACTCTAGAGGATCCGGCCATAACCCACCAGG</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1790_1647_TCC_sub-1</t>
+          <t>test-CGL_RS00025-1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CGTCAGATAGTCGGCCATCA</t>
+          <t>CACCATCGATCAAGGCCTGT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1790_1647_TCC_sub-2</t>
+          <t>test-CGL_RS00025-2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,480 +760,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>test-Cgl1790_1647_TCC_sub-3</t>
+          <t>test-CGL_RS00025-3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AGCTGAGCGCGATAAAGAGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub-1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCCCGTCTGACTACCCCAGAGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub-2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TTAACCGCGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub-3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACG</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Cgl1386_327_18to15_sub-4</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCGCACAACAAGCTGGCGTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl1386_327_18to15_sub-1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ATGGACAGTGGTTTCGCACA</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl1386_327_18to15_sub-2</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl1386_327_18to15_sub-3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AAAATGTGGGCGCGATCTTG</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins-1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGTATCATCGCAACCCGCAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins-2</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CATTGTGTGGCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins-3</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins-4</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCACGTCCTTCCACGGCTTG</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0591_-1_Ppgk_promoter_ins-1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AAGAAGGCATGATCACCGCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0591_-1_Ppgk_promoter_ins-2</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0591_-1_Ppgk_promoter_ins-3</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>GGGACGAAAACGTCATTGGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCGGACTCGTGCTGGCAGTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ATGTACAGGCAATTGTTTTGGCACGACTTGATGTGAGCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del-3</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACA</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0141_cds_del-4</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCTCAAAGCGCCAGCCATCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0141_cds_del-1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>AATTTCCTGTCCTCCGCAGC</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0141_cds_del-2</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0141_cds_del-3</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ACGTGAAGAAGTGGCACAAA</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-1</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCTCGTTGCAGTCGGACTCATC</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-2</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>GAACGAGTATTTGTATTTCAATGTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-3</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GCTTTTAAGTTTTCTCGGTGATCC</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-4</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCCGCACGCCTCATGGATTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-5</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACC</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>153019_ecoil_ybeL_ins-6</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CACCGAGAAAACTTAAAAGCTTACGGCTCAAACGGGCG</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>test-153019_ecoil_ybeL_ins-1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ATCATGCGACCGCTGATCAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>test-153019_ecoil_ybeL_ins-2</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>test-153019_ecoil_ybeL_ins-3</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ACCTGCGTCGGTTGGAAAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>GAGCTCGGTACCCGGGGATCAGGAACTCAACGCAGAAGCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-2</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TCGCTTGCTTATAGGGTCAGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-3</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>GAAAACTCCTTTATTGTCGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-4</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CAGGTCGACTCTAGAGGATCTAGCAACGAACTCGCCGG</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-5</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>CTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgca</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Cgl0851_ecoli_pgi_sub-6</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ACGACAATAAAGGAGTTTTCttaaccgcgccacgctttat</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0851_ecoli_pgi_sub-1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ATTGTTCGGAAGCTGCCTGT</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0851_ecoli_pgi_sub-2</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TGTGCTGCAAGGCGATTAAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>test-Cgl0851_ecoli_pgi_sub-3</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GGTCTCCCGCATATCCATCG</t>
+          <t>TGCTCACCTTCTTCATCACCT</t>
         </is>
       </c>
     </row>
